--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3813.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3813.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.687167669962864</v>
+        <v>4.170519828796387</v>
       </c>
       <c r="B1">
-        <v>2.219809455470953</v>
+        <v>7.307291507720947</v>
       </c>
       <c r="C1">
-        <v>3.497582563300435</v>
+        <v>5.626019477844238</v>
       </c>
       <c r="D1">
-        <v>4.641049457441549</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.5613334055036121</v>
+        <v>3.754376649856567</v>
       </c>
     </row>
   </sheetData>
